--- a/URS/DbLayouts/L5-管理性作業/NegAppr.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegAppr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C844BB-2B8E-4E26-ACE2-690DABA5FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2385D2B-EDFB-4FAF-AF5F-1D7669FE015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,14 +216,6 @@
   <si>
     <t>YyyyMm,KindCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YyyyMmBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YyyyMmEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>YyyyMm=</t>
@@ -271,15 +263,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDateEq</t>
+    <t>BringUpDate =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BringUpDateEq</t>
+    <t>yyyyMmBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyyMmEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BringUpDate =</t>
+    <t>acDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDateEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +926,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1488,46 +1488,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
